--- a/VersionRecords/Version 5.1.3.2 20161202/版本Bug和特性计划及评审表v5.1.3.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.2 20161202/版本Bug和特性计划及评审表v5.1.3.2_EQ组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.3.2 20161202\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -288,12 +283,24 @@
     <t>朱彤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -745,6 +752,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -764,7 +839,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1084,17 +1159,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="14" customWidth="1"/>
@@ -1120,7 +1195,7 @@
     <col min="23" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1185,7 +1260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1223,17 +1298,27 @@
       <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="28"/>
+      <c r="N2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="11">
+        <v>42706</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="28">
+        <v>5752</v>
+      </c>
       <c r="S2" s="28"/>
       <c r="T2" s="28"/>
       <c r="U2" s="13"/>
       <c r="V2" s="8"/>
     </row>
-    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="16.5">
       <c r="A3" s="7"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -1256,7 +1341,7 @@
       <c r="T3" s="7"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="16.5">
       <c r="A4" s="7"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1279,7 +1364,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="16.5">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1302,7 +1387,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="16.5">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1325,7 +1410,7 @@
       <c r="T6" s="7"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="16.5">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1348,7 +1433,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="16.5">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1371,7 +1456,7 @@
       <c r="T8" s="7"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="16.5">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1394,7 +1479,7 @@
       <c r="T9" s="7"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="16.5">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1417,7 +1502,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1440,7 +1525,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="16.5">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1463,7 +1548,7 @@
       <c r="T12" s="7"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1486,7 +1571,7 @@
       <c r="T13" s="7"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1509,7 +1594,7 @@
       <c r="T14" s="7"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="16.5">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1532,7 +1617,7 @@
       <c r="T15" s="7"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="16.5">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1555,7 +1640,7 @@
       <c r="T16" s="7"/>
       <c r="U16" s="4"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1578,7 +1663,7 @@
       <c r="T17" s="7"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1601,7 +1686,7 @@
       <c r="T18" s="7"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1624,7 +1709,7 @@
       <c r="T19" s="7"/>
       <c r="U19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1647,7 +1732,7 @@
       <c r="T20" s="7"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1670,7 +1755,7 @@
       <c r="T21" s="7"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1693,7 +1778,7 @@
       <c r="T22" s="7"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1716,7 +1801,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="4"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1739,7 +1824,7 @@
       <c r="T24" s="7"/>
       <c r="U24" s="4"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1762,7 +1847,7 @@
       <c r="T25" s="7"/>
       <c r="U25" s="4"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1785,7 +1870,7 @@
       <c r="T26" s="7"/>
       <c r="U26" s="4"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1808,7 +1893,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1831,7 +1916,7 @@
       <c r="T28" s="7"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1854,7 +1939,7 @@
       <c r="T29" s="7"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1877,7 +1962,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="4"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1900,7 +1985,7 @@
       <c r="T31" s="7"/>
       <c r="U31" s="4"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1923,7 +2008,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="4"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1946,7 +2031,7 @@
       <c r="T33" s="7"/>
       <c r="U33" s="4"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1969,7 +2054,7 @@
       <c r="T34" s="7"/>
       <c r="U34" s="4"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1992,7 +2077,7 @@
       <c r="T35" s="7"/>
       <c r="U35" s="4"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2015,7 +2100,7 @@
       <c r="T36" s="7"/>
       <c r="U36" s="4"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2038,7 +2123,7 @@
       <c r="T37" s="7"/>
       <c r="U37" s="4"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2061,7 +2146,7 @@
       <c r="T38" s="7"/>
       <c r="U38" s="4"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2084,7 +2169,7 @@
       <c r="T39" s="7"/>
       <c r="U39" s="4"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2107,7 +2192,7 @@
       <c r="T40" s="7"/>
       <c r="U40" s="4"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2130,7 +2215,7 @@
       <c r="T41" s="7"/>
       <c r="U41" s="4"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2153,7 +2238,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="4"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2176,7 +2261,7 @@
       <c r="T43" s="7"/>
       <c r="U43" s="4"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2199,7 +2284,7 @@
       <c r="T44" s="7"/>
       <c r="U44" s="4"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2222,7 +2307,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="4"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2245,7 +2330,7 @@
       <c r="T46" s="7"/>
       <c r="U46" s="4"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2268,7 +2353,7 @@
       <c r="T47" s="7"/>
       <c r="U47" s="4"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -2291,7 +2376,7 @@
       <c r="T48" s="7"/>
       <c r="U48" s="4"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2314,7 +2399,7 @@
       <c r="T49" s="7"/>
       <c r="U49" s="4"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2337,7 +2422,7 @@
       <c r="T50" s="7"/>
       <c r="U50" s="4"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2360,7 +2445,7 @@
       <c r="T51" s="7"/>
       <c r="U51" s="4"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2383,7 +2468,7 @@
       <c r="T52" s="7"/>
       <c r="U52" s="4"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2406,7 +2491,7 @@
       <c r="T53" s="7"/>
       <c r="U53" s="4"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2429,7 +2514,7 @@
       <c r="T54" s="7"/>
       <c r="U54" s="4"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2452,7 +2537,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="4"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2475,7 +2560,7 @@
       <c r="T56" s="7"/>
       <c r="U56" s="4"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2498,7 +2583,7 @@
       <c r="T57" s="7"/>
       <c r="U57" s="4"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2521,7 +2606,7 @@
       <c r="T58" s="7"/>
       <c r="U58" s="4"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2544,7 +2629,7 @@
       <c r="T59" s="7"/>
       <c r="U59" s="4"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2567,7 +2652,7 @@
       <c r="T60" s="7"/>
       <c r="U60" s="4"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2590,7 +2675,7 @@
       <c r="T61" s="7"/>
       <c r="U61" s="4"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2613,7 +2698,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="4"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2636,7 +2721,7 @@
       <c r="T63" s="7"/>
       <c r="U63" s="4"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2659,7 +2744,7 @@
       <c r="T64" s="7"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2682,7 +2767,7 @@
       <c r="T65" s="7"/>
       <c r="U65" s="4"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2705,7 +2790,7 @@
       <c r="T66" s="7"/>
       <c r="U66" s="4"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2728,7 +2813,7 @@
       <c r="T67" s="7"/>
       <c r="U67" s="4"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2751,7 +2836,7 @@
       <c r="T68" s="7"/>
       <c r="U68" s="4"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2774,7 +2859,7 @@
       <c r="T69" s="7"/>
       <c r="U69" s="4"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2797,7 +2882,7 @@
       <c r="T70" s="7"/>
       <c r="U70" s="4"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2820,7 +2905,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="4"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2843,7 +2928,7 @@
       <c r="T72" s="7"/>
       <c r="U72" s="4"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2866,7 +2951,7 @@
       <c r="T73" s="7"/>
       <c r="U73" s="4"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2889,7 +2974,7 @@
       <c r="T74" s="7"/>
       <c r="U74" s="4"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2912,7 +2997,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="4"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2935,7 +3020,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2958,7 +3043,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2981,7 +3066,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3004,7 +3089,7 @@
       <c r="T79" s="7"/>
       <c r="U79" s="4"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3027,7 +3112,7 @@
       <c r="T80" s="7"/>
       <c r="U80" s="4"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3050,7 +3135,7 @@
       <c r="T81" s="7"/>
       <c r="U81" s="4"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3073,7 +3158,7 @@
       <c r="T82" s="7"/>
       <c r="U82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3096,7 +3181,7 @@
       <c r="T83" s="7"/>
       <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3119,7 +3204,7 @@
       <c r="T84" s="7"/>
       <c r="U84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3142,7 +3227,7 @@
       <c r="T85" s="7"/>
       <c r="U85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3165,7 +3250,7 @@
       <c r="T86" s="7"/>
       <c r="U86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3188,7 +3273,7 @@
       <c r="T87" s="7"/>
       <c r="U87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3211,7 +3296,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="4"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3234,7 +3319,7 @@
       <c r="T89" s="7"/>
       <c r="U89" s="4"/>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3257,7 +3342,7 @@
       <c r="T90" s="7"/>
       <c r="U90" s="4"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3280,7 +3365,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="4"/>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3303,7 +3388,7 @@
       <c r="T92" s="7"/>
       <c r="U92" s="4"/>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3326,7 +3411,7 @@
       <c r="T93" s="7"/>
       <c r="U93" s="4"/>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3346,7 +3431,7 @@
       <c r="Q94" s="4"/>
       <c r="U94" s="4"/>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3366,7 +3451,7 @@
       <c r="Q95" s="4"/>
       <c r="U95" s="4"/>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3386,7 +3471,7 @@
       <c r="Q96" s="4"/>
       <c r="U96" s="4"/>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3406,7 +3491,7 @@
       <c r="Q97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3426,7 +3511,7 @@
       <c r="Q98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3446,7 +3531,7 @@
       <c r="Q99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3466,7 +3551,7 @@
       <c r="Q100" s="4"/>
       <c r="U100" s="4"/>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3486,7 +3571,7 @@
       <c r="Q101" s="4"/>
       <c r="U101" s="4"/>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3506,7 +3591,7 @@
       <c r="Q102" s="4"/>
       <c r="U102" s="4"/>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3526,7 +3611,7 @@
       <c r="Q103" s="4"/>
       <c r="U103" s="4"/>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3546,7 +3631,7 @@
       <c r="Q104" s="4"/>
       <c r="U104" s="4"/>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3566,7 +3651,7 @@
       <c r="Q105" s="4"/>
       <c r="U105" s="4"/>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3586,7 +3671,7 @@
       <c r="Q106" s="4"/>
       <c r="U106" s="4"/>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3606,7 +3691,7 @@
       <c r="Q107" s="4"/>
       <c r="U107" s="4"/>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3626,7 +3711,7 @@
       <c r="Q108" s="4"/>
       <c r="U108" s="4"/>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3646,7 +3731,7 @@
       <c r="Q109" s="4"/>
       <c r="U109" s="4"/>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3666,7 +3751,7 @@
       <c r="Q110" s="4"/>
       <c r="U110" s="4"/>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3686,7 +3771,7 @@
       <c r="Q111" s="4"/>
       <c r="U111" s="4"/>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3706,7 +3791,7 @@
       <c r="Q112" s="4"/>
       <c r="U112" s="4"/>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" ht="16.5">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3726,7 +3811,7 @@
       <c r="Q113" s="4"/>
       <c r="U113" s="4"/>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" ht="16.5">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3746,7 +3831,7 @@
       <c r="Q114" s="4"/>
       <c r="U114" s="4"/>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" ht="16.5">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3766,7 +3851,7 @@
       <c r="Q115" s="4"/>
       <c r="U115" s="4"/>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" ht="16.5">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3786,7 +3871,7 @@
       <c r="Q116" s="4"/>
       <c r="U116" s="4"/>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" ht="16.5">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3806,7 +3891,7 @@
       <c r="Q117" s="4"/>
       <c r="U117" s="4"/>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" ht="16.5">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3826,7 +3911,7 @@
       <c r="Q118" s="4"/>
       <c r="U118" s="4"/>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" ht="16.5">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3846,7 +3931,7 @@
       <c r="Q119" s="4"/>
       <c r="U119" s="4"/>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" ht="16.5">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3866,7 +3951,7 @@
       <c r="Q120" s="4"/>
       <c r="U120" s="4"/>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" ht="16.5">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3886,7 +3971,7 @@
       <c r="Q121" s="4"/>
       <c r="U121" s="4"/>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" ht="16.5">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3906,7 +3991,7 @@
       <c r="Q122" s="4"/>
       <c r="U122" s="4"/>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" ht="16.5">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3926,7 +4011,7 @@
       <c r="Q123" s="4"/>
       <c r="U123" s="4"/>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" ht="16.5">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3946,7 +4031,7 @@
       <c r="Q124" s="4"/>
       <c r="U124" s="4"/>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" ht="16.5">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3966,7 +4051,7 @@
       <c r="Q125" s="4"/>
       <c r="U125" s="4"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3986,7 +4071,7 @@
       <c r="Q126" s="4"/>
       <c r="U126" s="4"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4006,7 +4091,7 @@
       <c r="Q127" s="4"/>
       <c r="U127" s="4"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4026,131 +4111,131 @@
       <c r="Q128" s="4"/>
       <c r="U128" s="4"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:3">
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:3">
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:3">
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:3">
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:3">
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:3">
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:3">
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:3">
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:3">
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:3">
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:3">
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:3">
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:3">
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:3">
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:3">
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:3">
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:3">
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:3">
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:3">
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:3">
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:3">
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:3">
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:3">
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:3">
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
     </row>
@@ -4162,20 +4247,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>45</v>
       </c>
@@ -4192,7 +4277,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4207,7 +4292,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
       <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
@@ -4248,7 +4333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -4307,19 +4392,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>45</v>
       </c>
@@ -4336,7 +4421,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4351,7 +4436,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
       <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
@@ -4392,7 +4477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -4451,16 +4536,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>45</v>
       </c>
@@ -4477,7 +4562,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4492,7 +4577,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
       <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
@@ -4533,7 +4618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -4592,16 +4677,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="41" t="s">
         <v>45</v>
       </c>
@@ -4618,7 +4703,7 @@
       <c r="L1" s="41"/>
       <c r="M1" s="42"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4633,7 +4718,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="44"/>
     </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
       <c r="A3" s="32" t="s">
         <v>28</v>
       </c>
@@ -4674,7 +4759,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
       <c r="A4" s="37">
         <v>1</v>
       </c>
@@ -4733,21 +4818,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
     <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="45" t="s">
         <v>27</v>
       </c>
@@ -4760,7 +4845,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="46"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="47"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -4771,7 +4856,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="48"/>
     </row>
-    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
         <v>28</v>
       </c>
@@ -4800,7 +4885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -4811,7 +4896,7 @@
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -4822,7 +4907,7 @@
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4833,7 +4918,7 @@
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4844,7 +4929,7 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4855,7 +4940,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4866,7 +4951,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4877,7 +4962,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -4888,7 +4973,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -4899,7 +4984,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -4910,7 +4995,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -4939,14 +5024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4957,7 +5042,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4983,7 +5068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="20"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -4993,7 +5078,7 @@
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -5003,7 +5088,7 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -5013,7 +5098,7 @@
       <c r="G4" s="19"/>
       <c r="H4" s="19"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -5023,7 +5108,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5033,7 +5118,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -5043,7 +5128,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -5053,7 +5138,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -5063,7 +5148,7 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5073,7 +5158,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -5083,7 +5168,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -5093,7 +5178,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -5103,7 +5188,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -5113,7 +5198,7 @@
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -5123,7 +5208,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -5133,7 +5218,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -5143,7 +5228,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -5153,7 +5238,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>

--- a/VersionRecords/Version 5.1.3.2 20161202/版本Bug和特性计划及评审表v5.1.3.2_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.3.2 20161202/版本Bug和特性计划及评审表v5.1.3.2_EQ组.xlsx
@@ -8,19 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="版本5.1.3.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="配置文件（测试环境）" sheetId="4" r:id="rId2"/>
-    <sheet name="配置文件(预发布环境)" sheetId="5" r:id="rId3"/>
-    <sheet name="配置文件（生产环境）" sheetId="6" r:id="rId4"/>
-    <sheet name="配置文件(公测环境)" sheetId="7" r:id="rId5"/>
-    <sheet name="BS权限配置" sheetId="3" r:id="rId6"/>
-    <sheet name="数据修复" sheetId="2" r:id="rId7"/>
+    <sheet name="BS权限配置" sheetId="3" r:id="rId2"/>
+    <sheet name="数据修复" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -178,102 +174,6 @@
   <si>
     <t>renter、renterpc</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置汇总</t>
-  </si>
-  <si>
-    <t>配置所属系统</t>
-  </si>
-  <si>
-    <t>配置的详细内容</t>
-  </si>
-  <si>
-    <t>用途</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>开发人</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>配置文件名</t>
-  </si>
-  <si>
-    <t>技术经理</t>
-  </si>
-  <si>
-    <t>EQ组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemconfig.properties</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sysconfig.ELASTIC_SEARCHROOM_HOUSE_TYPE=house</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索引擎增加house对应的type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓春</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置：sysconfig.ELASTIC_SEARCHROOM_ROOM_TYPE=room下一行</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.3.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tasktrack</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试环境</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>预发布环境</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产环境</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>修复房间详情页，针对付一的付款方式，不显示支持月付的标签的问题</t>
@@ -300,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -410,31 +310,6 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -591,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,45 +563,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,74 +588,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -839,7 +607,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1166,7 +934,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1271,7 +1039,7 @@
         <v>42</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>43</v>
@@ -1293,22 +1061,22 @@
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="P2" s="11">
         <v>42706</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="R2" s="28">
         <v>5752</v>
@@ -4248,581 +4016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
-      <c r="A3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
-      <c r="A3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="A1:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
-      <c r="A3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="35" customFormat="1" ht="16.5">
-      <c r="A3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="40" customFormat="1" ht="115.5">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
-  </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVN4 F4 JB4 SX4 ACT4 AMP4 AWL4 BGH4 BQD4 BZZ4 CJV4 CTR4 DDN4 DNJ4 DXF4 EHB4 EQX4 FAT4 FKP4 FUL4 GEH4 GOD4 GXZ4 HHV4 HRR4 IBN4 ILJ4 IVF4 JFB4 JOX4 JYT4 KIP4 KSL4 LCH4 LMD4 LVZ4 MFV4 MPR4 MZN4 NJJ4 NTF4 ODB4 OMX4 OWT4 PGP4 PQL4 QAH4 QKD4 QTZ4 RDV4 RNR4 RXN4 SHJ4 SRF4 TBB4 TKX4 TUT4 UEP4 UOL4 UYH4 VID4 VRZ4 WBV4 WLR4">
-      <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 JE1:JE4 TA1:TA4 ACW1:ACW4 AMS1:AMS4 AWO1:AWO4 BGK1:BGK4 BQG1:BQG4 CAC1:CAC4 CJY1:CJY4 CTU1:CTU4 DDQ1:DDQ4 DNM1:DNM4 DXI1:DXI4 EHE1:EHE4 ERA1:ERA4 FAW1:FAW4 FKS1:FKS4 FUO1:FUO4 GEK1:GEK4 GOG1:GOG4 GYC1:GYC4 HHY1:HHY4 HRU1:HRU4 IBQ1:IBQ4 ILM1:ILM4 IVI1:IVI4 JFE1:JFE4 JPA1:JPA4 JYW1:JYW4 KIS1:KIS4 KSO1:KSO4 LCK1:LCK4 LMG1:LMG4 LWC1:LWC4 MFY1:MFY4 MPU1:MPU4 MZQ1:MZQ4 NJM1:NJM4 NTI1:NTI4 ODE1:ODE4 ONA1:ONA4 OWW1:OWW4 PGS1:PGS4 PQO1:PQO4 QAK1:QAK4 QKG1:QKG4 QUC1:QUC4 RDY1:RDY4 RNU1:RNU4 RXQ1:RXQ4 SHM1:SHM4 SRI1:SRI4 TBE1:TBE4 TLA1:TLA4 TUW1:TUW4 UES1:UES4 UOO1:UOO4 UYK1:UYK4 VIG1:VIG4 VSC1:VSC4 WBY1:WBY4 WLU1:WLU4 WVQ1:WVQ4">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4833,28 +4030,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" s="26" customFormat="1" ht="16.5">
       <c r="A3" s="24" t="s">
@@ -5023,7 +4220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
